--- a/grubb_picipennis.xlsx
+++ b/grubb_picipennis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Deeplearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F57A92-2FC0-4F55-A7F8-B2D628ADB7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1E8825-D50E-4A1D-92FD-BDE0D78F08CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25965" yWindow="675" windowWidth="25545" windowHeight="18105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25980" yWindow="765" windowWidth="25545" windowHeight="18105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
-      <selection activeCell="A406" sqref="A406"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10441,7 +10441,7 @@
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" s="8">
-        <v>0.23472631441854899</v>
+        <v>0.23272631441854899</v>
       </c>
       <c r="B188" t="s">
         <v>16</v>
@@ -13086,8 +13086,8 @@
       </c>
     </row>
     <row r="238" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A238" s="7">
-        <v>0.18210842957705664</v>
+      <c r="A238" s="8">
+        <v>0.183108429577057</v>
       </c>
       <c r="B238" t="s">
         <v>22</v>
@@ -14252,8 +14252,8 @@
       </c>
     </row>
     <row r="260" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A260" s="7">
-        <v>0.22499283654138075</v>
+      <c r="A260" s="8">
+        <v>0.223992836541381</v>
       </c>
       <c r="B260" t="s">
         <v>22</v>
@@ -16466,8 +16466,8 @@
       </c>
     </row>
     <row r="302" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A302" s="7">
-        <v>0.20602503953709175</v>
+      <c r="A302" s="8">
+        <v>0.205025039537092</v>
       </c>
       <c r="B302" t="s">
         <v>22</v>
@@ -22761,8 +22761,8 @@
       </c>
     </row>
     <row r="421" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A421" s="7">
-        <v>0.20744357118608517</v>
+      <c r="A421" s="8">
+        <v>0.209443571186085</v>
       </c>
       <c r="B421" t="s">
         <v>22</v>
